--- a/results/I3_N5_M2_T45_C100_DepLowerLeft_s3_mean_res.xlsx
+++ b/results/I3_N5_M2_T45_C100_DepLowerLeft_s3_mean_res.xlsx
@@ -473,7 +473,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1181.894887232698</v>
+        <v>1084.604887231449</v>
       </c>
     </row>
     <row r="4">
@@ -483,7 +483,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.4779999256134033</v>
+        <v>0.3690001964569092</v>
       </c>
     </row>
     <row r="5">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>33.42003702099418</v>
+        <v>33.62408323967798</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>15.38703688534934</v>
+        <v>15.70224920269012</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>6.57188709580437</v>
+        <v>6.683053194461346</v>
       </c>
     </row>
     <row r="9">
@@ -533,7 +533,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>989.5900000012489</v>
+        <v>895.9999999999999</v>
       </c>
     </row>
     <row r="10">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>167.7</v>
+        <v>164</v>
       </c>
     </row>
   </sheetData>
@@ -584,7 +584,7 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B2" t="n">
         <v>1</v>
@@ -634,7 +634,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C2" t="n">
         <v>1</v>
@@ -645,7 +645,7 @@
         <v>0</v>
       </c>
       <c r="B3" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C3" t="n">
         <v>1</v>
@@ -656,7 +656,7 @@
         <v>1</v>
       </c>
       <c r="B4" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="C4" t="n">
         <v>1</v>
@@ -667,7 +667,7 @@
         <v>2</v>
       </c>
       <c r="B5" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="C5" t="n">
         <v>1</v>
@@ -678,7 +678,7 @@
         <v>3</v>
       </c>
       <c r="B6" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C6" t="n">
         <v>1</v>
@@ -689,7 +689,7 @@
         <v>4</v>
       </c>
       <c r="B7" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C7" t="n">
         <v>1</v>
@@ -700,7 +700,7 @@
         <v>5</v>
       </c>
       <c r="B8" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C8" t="n">
         <v>1</v>
@@ -863,7 +863,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>30</v>
+        <v>33.10555953090582</v>
       </c>
     </row>
     <row r="4">
@@ -871,7 +871,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>39.55844691287496</v>
+        <v>30</v>
       </c>
     </row>
     <row r="5">
@@ -879,7 +879,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>35.84866676379884</v>
+        <v>30</v>
       </c>
     </row>
     <row r="6">
@@ -887,7 +887,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>15.33301651610679</v>
+        <v>15</v>
       </c>
     </row>
     <row r="7">
@@ -895,7 +895,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>15</v>
+        <v>15.33301651610694</v>
       </c>
     </row>
     <row r="8">
@@ -960,7 +960,7 @@
         <v>3</v>
       </c>
       <c r="B2" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C2" t="n">
         <v>1</v>
@@ -971,7 +971,7 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B3" t="n">
         <v>3</v>
@@ -1038,7 +1038,7 @@
         <v>1</v>
       </c>
       <c r="C3" t="n">
-        <v>64.38000000000285</v>
+        <v>122.4</v>
       </c>
     </row>
     <row r="4">
@@ -1049,7 +1049,7 @@
         <v>1</v>
       </c>
       <c r="C4" t="n">
-        <v>152.3990000000396</v>
+        <v>50.8</v>
       </c>
     </row>
     <row r="5">
@@ -1060,7 +1060,7 @@
         <v>1</v>
       </c>
       <c r="C5" t="n">
-        <v>146.56000000006</v>
+        <v>167.2</v>
       </c>
     </row>
     <row r="6">
@@ -1071,7 +1071,7 @@
         <v>1</v>
       </c>
       <c r="C6" t="n">
-        <v>105.3280000000216</v>
+        <v>53</v>
       </c>
     </row>
     <row r="7">
@@ -1082,7 +1082,7 @@
         <v>1</v>
       </c>
       <c r="C7" t="n">
-        <v>41.94400000000508</v>
+        <v>106.6</v>
       </c>
     </row>
     <row r="8">
@@ -1093,7 +1093,7 @@
         <v>1</v>
       </c>
       <c r="C8" t="n">
-        <v>152.399000000049</v>
+        <v>167.2</v>
       </c>
     </row>
     <row r="9">
@@ -1104,7 +1104,7 @@
         <v>1</v>
       </c>
       <c r="C9" t="n">
-        <v>146.5600000000767</v>
+        <v>122.4</v>
       </c>
     </row>
   </sheetData>
@@ -1151,7 +1151,7 @@
         <v>1</v>
       </c>
       <c r="C2" t="n">
-        <v>52.39900000004869</v>
+        <v>67.19999999999999</v>
       </c>
     </row>
     <row r="3">
@@ -1162,7 +1162,7 @@
         <v>1</v>
       </c>
       <c r="C3" t="n">
-        <v>46.5600000000762</v>
+        <v>22.4</v>
       </c>
     </row>
   </sheetData>
@@ -1242,7 +1242,7 @@
         <v>1</v>
       </c>
       <c r="C5" t="n">
-        <v>10.594</v>
+        <v>7.6</v>
       </c>
     </row>
     <row r="6">
@@ -1253,7 +1253,7 @@
         <v>1</v>
       </c>
       <c r="C6" t="n">
-        <v>6.176</v>
+        <v>8.800000000000001</v>
       </c>
     </row>
   </sheetData>
@@ -1294,7 +1294,7 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B2" t="n">
         <v>1</v>
@@ -1316,7 +1316,7 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B4" t="n">
         <v>1</v>
